--- a/renew-list.xlsx
+++ b/renew-list.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,215 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
-  <si>
-    <t>INTEGRATED LOGISTICS LIMITED</t>
-  </si>
-  <si>
-    <t>AHB3131</t>
-  </si>
-  <si>
-    <t>25/05/2025</t>
-  </si>
-  <si>
-    <t>EVANGELICAL CHURCH IN ZAMBIA</t>
-  </si>
-  <si>
-    <t>ACP6195</t>
-  </si>
-  <si>
-    <t>24/05/2025</t>
-  </si>
-  <si>
-    <t>SINKALA</t>
-  </si>
-  <si>
-    <t>ADF989ZM</t>
-  </si>
-  <si>
-    <t>23/05/2025</t>
-  </si>
-  <si>
-    <t>BANDA</t>
-  </si>
-  <si>
-    <t>ACL1814</t>
-  </si>
-  <si>
-    <t>26/05/2025</t>
-  </si>
-  <si>
-    <t>MR SAMBUMBA</t>
-  </si>
-  <si>
-    <t>BCD7085ZM</t>
-  </si>
-  <si>
-    <t>CHILANDO</t>
-  </si>
-  <si>
-    <t>ACV3601</t>
-  </si>
-  <si>
-    <t>MS JOYCE</t>
-  </si>
-  <si>
-    <t>AGB5412ZM</t>
-  </si>
-  <si>
-    <t>MOYO</t>
-  </si>
-  <si>
-    <t>AID1800ZM</t>
-  </si>
-  <si>
-    <t>MANYA</t>
-  </si>
-  <si>
-    <t>BCD6397</t>
-  </si>
-  <si>
-    <t>MUWOWO</t>
-  </si>
-  <si>
-    <t>ABV2936</t>
-  </si>
-  <si>
-    <t>MR MPUNGA</t>
-  </si>
-  <si>
-    <t>ADE9171ZM</t>
-  </si>
-  <si>
-    <t>BINDABINDA</t>
-  </si>
-  <si>
-    <t>BCE1380ZM</t>
-  </si>
-  <si>
-    <t>MR LUNGU</t>
-  </si>
-  <si>
-    <t>AIB5288ZM</t>
-  </si>
-  <si>
-    <t>NONDE</t>
-  </si>
-  <si>
-    <t>AJD2978</t>
-  </si>
-  <si>
-    <t>MR STEPHEN</t>
-  </si>
-  <si>
-    <t>BCF8497ZM</t>
-  </si>
-  <si>
-    <t>CHAILE</t>
-  </si>
-  <si>
-    <t>AID9717ZM</t>
-  </si>
-  <si>
-    <t>MR SAMALELA</t>
-  </si>
-  <si>
-    <t>ADF4271ZM</t>
-  </si>
-  <si>
-    <t>BAR2925ZM</t>
-  </si>
-  <si>
-    <t>SIKAPIZYE</t>
-  </si>
-  <si>
-    <t>ABK9010</t>
-  </si>
-  <si>
-    <t>NAWA</t>
-  </si>
-  <si>
-    <t>AJB5582</t>
-  </si>
-  <si>
-    <t>MULENGA</t>
-  </si>
-  <si>
-    <t>BCF8484ZM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
   <si>
     <t>MUMBA</t>
   </si>
   <si>
-    <t>AIC6261ZM</t>
-  </si>
-  <si>
     <t>MUSONDA</t>
   </si>
   <si>
-    <t>AGB3349</t>
-  </si>
-  <si>
-    <t>CHISALA</t>
-  </si>
-  <si>
-    <t>ACX7713</t>
-  </si>
-  <si>
-    <t>LUBASI</t>
-  </si>
-  <si>
-    <t>ACZ913</t>
-  </si>
-  <si>
-    <t>CHIZU</t>
-  </si>
-  <si>
-    <t>AIF4766ZM</t>
-  </si>
-  <si>
-    <t>KINTU</t>
-  </si>
-  <si>
-    <t>ABL8474</t>
-  </si>
-  <si>
-    <t>NGOMA</t>
-  </si>
-  <si>
-    <t>BAB3943</t>
-  </si>
-  <si>
-    <t>BANTUBONSE</t>
-  </si>
-  <si>
-    <t>BCC568ZM</t>
-  </si>
-  <si>
-    <t>MR KAMENGA</t>
-  </si>
-  <si>
-    <t>AJD7463</t>
-  </si>
-  <si>
-    <t>CHOLA</t>
-  </si>
-  <si>
-    <t>AID3559ZM</t>
-  </si>
-  <si>
-    <t>MR CHIBEKA</t>
-  </si>
-  <si>
-    <t>ACZ3896</t>
-  </si>
-  <si>
-    <t>NDALA</t>
-  </si>
-  <si>
-    <t>AGC1368ZM</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -243,13 +42,373 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>MS ELIZABETH</t>
+  </si>
+  <si>
+    <t>AGB3755</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>AID MASTERS DRIVING SCHOOL</t>
+  </si>
+  <si>
+    <t>ACJ2839</t>
+  </si>
+  <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>JAN JAPAN ZAMBIA LIMITED</t>
+  </si>
+  <si>
+    <t>BCD9432ZM</t>
+  </si>
+  <si>
+    <t>01/06/2025</t>
+  </si>
+  <si>
+    <t>MR MUKUPA</t>
+  </si>
+  <si>
+    <t>AID9771ZM</t>
+  </si>
+  <si>
+    <t>31/05/2025</t>
+  </si>
+  <si>
+    <t>KABANGE</t>
+  </si>
+  <si>
+    <t>AGB6532ZM</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>MR KALUMBA</t>
+  </si>
+  <si>
+    <t>ACZ4010</t>
+  </si>
+  <si>
+    <t>AID1988ZM</t>
+  </si>
+  <si>
+    <t>BESA</t>
+  </si>
+  <si>
+    <t>ACJ3388</t>
+  </si>
+  <si>
+    <t>MR PHIRI</t>
+  </si>
+  <si>
+    <t>BCA1175</t>
+  </si>
+  <si>
+    <t>MR KAHEMBI</t>
+  </si>
+  <si>
+    <t>ACL4037</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>MRS KOBZAR</t>
+  </si>
+  <si>
+    <t>CAE2474ZM</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>MR ZIMBA</t>
+  </si>
+  <si>
+    <t>BCC8139ZM</t>
+  </si>
+  <si>
+    <t>MR MBASELA</t>
+  </si>
+  <si>
+    <t>AGB5969ZM</t>
+  </si>
+  <si>
+    <t>MS PHIRI</t>
+  </si>
+  <si>
+    <t>ALP3066</t>
+  </si>
+  <si>
+    <t>MR SAJI</t>
+  </si>
+  <si>
+    <t>ATB5185ZM</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>MR MUTALE</t>
+  </si>
+  <si>
+    <t>ACH7355</t>
+  </si>
+  <si>
+    <t>CHEWE</t>
+  </si>
+  <si>
+    <t>BAH6854ZM</t>
+  </si>
+  <si>
+    <t>MR SINKALA</t>
+  </si>
+  <si>
+    <t>ADE5507ZM</t>
+  </si>
+  <si>
+    <t>LEYAMINA</t>
+  </si>
+  <si>
+    <t>AFB3711ZM</t>
+  </si>
+  <si>
+    <t>AJD3053</t>
+  </si>
+  <si>
+    <t>SIMPAMBA</t>
+  </si>
+  <si>
+    <t>AGB5443ZM</t>
+  </si>
+  <si>
+    <t>SIKASOTE</t>
+  </si>
+  <si>
+    <t>AID1895ZM</t>
+  </si>
+  <si>
+    <t>MAYALA</t>
+  </si>
+  <si>
+    <t>AIF1172ZM</t>
+  </si>
+  <si>
+    <t>MABOSHE</t>
+  </si>
+  <si>
+    <t>AIB8130ZM</t>
+  </si>
+  <si>
+    <t>SOMPA</t>
+  </si>
+  <si>
+    <t>ADE7525ZM</t>
+  </si>
+  <si>
+    <t>KAFINDA</t>
+  </si>
+  <si>
+    <t>BCA1087</t>
+  </si>
+  <si>
+    <t>MAKOMBO</t>
+  </si>
+  <si>
+    <t>ABJ4081</t>
+  </si>
+  <si>
+    <t>MR CHALI</t>
+  </si>
+  <si>
+    <t>BCB6910ZM</t>
+  </si>
+  <si>
+    <t>LUBUBA</t>
+  </si>
+  <si>
+    <t>BCD2974ZM</t>
+  </si>
+  <si>
+    <t>MR BWANGA</t>
+  </si>
+  <si>
+    <t>AIE9364ZM</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>ACK6249</t>
+  </si>
+  <si>
+    <t>CHISENGA</t>
+  </si>
+  <si>
+    <t>AIB3722</t>
+  </si>
+  <si>
+    <t>MULANDA</t>
+  </si>
+  <si>
+    <t>AFB3790ZM</t>
+  </si>
+  <si>
+    <t>MR MWAPE</t>
+  </si>
+  <si>
+    <t>ACV7773</t>
+  </si>
+  <si>
+    <t>MULEYA</t>
+  </si>
+  <si>
+    <t>BCB8660ZM</t>
+  </si>
+  <si>
+    <t>MRS SHEYO</t>
+  </si>
+  <si>
+    <t>BCF5700ZM</t>
+  </si>
+  <si>
+    <t>KASONDE</t>
+  </si>
+  <si>
+    <t>ALT8923</t>
+  </si>
+  <si>
+    <t>BWALYA</t>
+  </si>
+  <si>
+    <t>ABL8999</t>
+  </si>
+  <si>
+    <t>SIMOVWE</t>
+  </si>
+  <si>
+    <t>AGB3906</t>
+  </si>
+  <si>
+    <t>MR MUBANGA</t>
+  </si>
+  <si>
+    <t>AIB3144</t>
+  </si>
+  <si>
+    <t>ALP6564</t>
+  </si>
+  <si>
+    <t>NGUNI</t>
+  </si>
+  <si>
+    <t>ALH3828</t>
+  </si>
+  <si>
+    <t>MUBANGA</t>
+  </si>
+  <si>
+    <t>ALK144</t>
+  </si>
+  <si>
+    <t>MS KALALUKA</t>
+  </si>
+  <si>
+    <t>BCE1555</t>
+  </si>
+  <si>
+    <t>MR CHAMA</t>
+  </si>
+  <si>
+    <t>BBC137ZM</t>
+  </si>
+  <si>
+    <t>MKANDAWIRE</t>
+  </si>
+  <si>
+    <t>AGB234</t>
+  </si>
+  <si>
+    <t>MR YUSUF</t>
+  </si>
+  <si>
+    <t>AID7641ZM</t>
+  </si>
+  <si>
+    <t>SIWALE</t>
+  </si>
+  <si>
+    <t>AIE1414ZM</t>
+  </si>
+  <si>
+    <t>MHANGO</t>
+  </si>
+  <si>
+    <t>ALR5500</t>
+  </si>
+  <si>
+    <t>MR IBRAHIM</t>
+  </si>
+  <si>
+    <t>AGB7959ZM</t>
+  </si>
+  <si>
+    <t>NAMBELA</t>
+  </si>
+  <si>
+    <t>AIC2420ZM</t>
+  </si>
+  <si>
+    <t>MUSAKANYA</t>
+  </si>
+  <si>
+    <t>ACM2380</t>
+  </si>
+  <si>
+    <t>MWANDILA</t>
+  </si>
+  <si>
+    <t>AID2488ZM</t>
+  </si>
+  <si>
+    <t>MPUNDU</t>
+  </si>
+  <si>
+    <t>AIC2311ZM</t>
+  </si>
+  <si>
+    <t>MUHAMUBI</t>
+  </si>
+  <si>
+    <t>AUB955ZM</t>
+  </si>
+  <si>
+    <t>NYIRENDA</t>
+  </si>
+  <si>
+    <t>AID421ZM</t>
+  </si>
+  <si>
+    <t>MWILA</t>
+  </si>
+  <si>
+    <t>CAD335ZM</t>
+  </si>
+  <si>
+    <t>CAD679ZM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,13 +427,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -301,16 +472,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,479 +779,832 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>260977785966</v>
+        <v>260966684079</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
-        <v>260967268532</v>
+        <v>260969310306</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3">
-        <v>260976078858</v>
+        <v>260977425353</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
-        <v>260968623453</v>
+        <v>260963543456</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>260777384133</v>
+        <v>260972477380</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="3">
-        <v>260977650334</v>
+        <v>260966985339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>260966319209</v>
+        <v>260965114432</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
-        <v>260965738989</v>
+        <v>260979666127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
-        <v>260963919647</v>
+        <v>260966027903</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
-        <v>260977182033</v>
+        <v>260968629786</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3">
-        <v>260965730592</v>
+        <v>260977280844</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3">
-        <v>260969577993</v>
+        <v>260966827233</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>260978332858</v>
+        <v>260960196102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3">
-        <v>260978662695</v>
+        <v>260963649953</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3">
-        <v>260963919647</v>
+        <v>260764221122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3">
-        <v>260977764883</v>
+        <v>260977175984</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>260963568819</v>
+        <v>260972817422</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>260968520088</v>
+        <v>260764002199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3">
-        <v>260969760649</v>
+        <v>260951878640</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3">
-        <v>260969887196</v>
+        <v>260969571470</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
-        <v>260966434309</v>
+        <v>260973734681</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3">
-        <v>260969501662</v>
+        <v>260960100200</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3">
-        <v>260968594868</v>
+        <v>260961954950</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
-        <v>260969303910</v>
+        <v>260979881722</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>260977655519</v>
+        <v>260969739802</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3">
-        <v>260977805823</v>
+        <v>260969148632</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
-        <v>260963303142</v>
+        <v>260968916395</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
-        <v>260963944870</v>
+        <v>260977509533</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3">
-        <v>260962675789</v>
+        <v>260962265189</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3">
-        <v>260955370008</v>
+        <v>260969581138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3">
-        <v>260978000322</v>
+        <v>260962108801</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
-        <v>260966660777</v>
+        <v>260977111224</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
-        <v>260969326676</v>
-      </c>
+        <v>260963406358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>260968860829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3">
+        <v>260966718484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>260961664705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>260977929261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3">
+        <v>260979474742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3">
+        <v>260979407545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3">
+        <v>260979313250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3">
+        <v>260955322293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="3">
+        <v>260971818599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3">
+        <v>260968063110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3">
+        <v>260969377827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="3">
+        <v>260977405569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="3">
+        <v>260968570832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>260976270890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3">
+        <v>260963222642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3">
+        <v>260977781922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3">
+        <v>260977614595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="3">
+        <v>260960493167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3">
+        <v>260966842681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="3">
+        <v>260966537747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>260969302426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3">
+        <v>260966021288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3">
+        <v>260762127655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3">
+        <v>260977376597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3">
+        <v>260969182070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
